--- a/彩票购买统计.xlsx
+++ b/彩票购买统计.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\DML\GitDB\lottery\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25598" windowHeight="14580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -56,11 +61,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -137,24 +142,32 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -479,25 +492,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.8125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.3125" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="10.8125" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -518,12 +531,12 @@
       </c>
       <c r="I4" s="2">
         <f>SUM(E5:E134)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="8">
-        <v>43000</v>
+        <v>42996</v>
       </c>
       <c r="C5" s="9">
         <v>3</v>
@@ -544,23 +557,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="8"/>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="8">
+        <v>42997</v>
+      </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10">
+        <v>5</v>
+      </c>
       <c r="E6" s="9">
         <f t="shared" ref="E6:E69" si="0">2*D6</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="8"/>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="8">
+        <v>42998</v>
+      </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10">
+        <v>5</v>
+      </c>
       <c r="E7" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7" s="10"/>
       <c r="H7" s="12" t="s">
@@ -571,37 +592,49 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="8"/>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="8">
+        <v>42999</v>
+      </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10">
+        <v>5</v>
+      </c>
       <c r="E8" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="8"/>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="8">
+        <v>43000</v>
+      </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10">
+        <v>5</v>
+      </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="8"/>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="8">
+        <v>43001</v>
+      </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10">
+        <v>5</v>
+      </c>
       <c r="E10" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -611,7 +644,7 @@
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
@@ -621,7 +654,7 @@
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -631,7 +664,7 @@
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
@@ -641,7 +674,7 @@
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -651,7 +684,7 @@
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -661,7 +694,7 @@
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
@@ -671,7 +704,7 @@
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
@@ -681,7 +714,7 @@
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -691,7 +724,7 @@
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
@@ -701,7 +734,7 @@
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
@@ -711,7 +744,7 @@
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
@@ -721,7 +754,7 @@
       </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
@@ -731,7 +764,7 @@
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
@@ -741,7 +774,7 @@
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -751,7 +784,7 @@
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
@@ -761,7 +794,7 @@
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
@@ -771,7 +804,7 @@
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -781,7 +814,7 @@
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -791,7 +824,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
@@ -801,7 +834,7 @@
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
@@ -811,7 +844,7 @@
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="10"/>
@@ -821,7 +854,7 @@
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
@@ -831,7 +864,7 @@
       </c>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
@@ -841,7 +874,7 @@
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
@@ -851,7 +884,7 @@
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
@@ -861,7 +894,7 @@
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -871,7 +904,7 @@
       </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -881,7 +914,7 @@
       </c>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -891,7 +924,7 @@
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
@@ -901,7 +934,7 @@
       </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
@@ -911,7 +944,7 @@
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
       <c r="D42" s="10"/>
@@ -921,7 +954,7 @@
       </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
@@ -931,7 +964,7 @@
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
@@ -941,7 +974,7 @@
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -951,7 +984,7 @@
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
       <c r="D46" s="10"/>
@@ -961,7 +994,7 @@
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
       <c r="D47" s="10"/>
@@ -971,7 +1004,7 @@
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
@@ -981,7 +1014,7 @@
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
       <c r="D49" s="10"/>
@@ -991,7 +1024,7 @@
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
       <c r="D50" s="10"/>
@@ -1001,7 +1034,7 @@
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10"/>
@@ -1011,7 +1044,7 @@
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
       <c r="D52" s="10"/>
@@ -1021,7 +1054,7 @@
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
       <c r="D53" s="10"/>
@@ -1031,7 +1064,7 @@
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
       <c r="D54" s="10"/>
@@ -1041,7 +1074,7 @@
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
       <c r="D55" s="10"/>
@@ -1051,7 +1084,7 @@
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
       <c r="D56" s="10"/>
@@ -1061,7 +1094,7 @@
       </c>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
       <c r="D57" s="10"/>
@@ -1071,7 +1104,7 @@
       </c>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
       <c r="D58" s="10"/>
@@ -1081,7 +1114,7 @@
       </c>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
@@ -1091,7 +1124,7 @@
       </c>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
       <c r="D60" s="10"/>
@@ -1101,7 +1134,7 @@
       </c>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
       <c r="D61" s="10"/>
@@ -1111,7 +1144,7 @@
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
       <c r="D62" s="10"/>
@@ -1121,7 +1154,7 @@
       </c>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B63" s="8"/>
       <c r="C63" s="9"/>
       <c r="D63" s="10"/>
@@ -1131,7 +1164,7 @@
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
       <c r="D64" s="10"/>
@@ -1141,7 +1174,7 @@
       </c>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
       <c r="D65" s="10"/>
@@ -1151,7 +1184,7 @@
       </c>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
       <c r="D66" s="10"/>
@@ -1161,7 +1194,7 @@
       </c>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
       <c r="D67" s="10"/>
@@ -1171,7 +1204,7 @@
       </c>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B68" s="8"/>
       <c r="C68" s="9"/>
       <c r="D68" s="10"/>
@@ -1181,7 +1214,7 @@
       </c>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
       <c r="D69" s="10"/>
@@ -1191,7 +1224,7 @@
       </c>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B70" s="8"/>
       <c r="C70" s="9"/>
       <c r="D70" s="10"/>
@@ -1201,7 +1234,7 @@
       </c>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
       <c r="D71" s="10"/>
@@ -1211,7 +1244,7 @@
       </c>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
       <c r="D72" s="10"/>
@@ -1221,7 +1254,7 @@
       </c>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B73" s="8"/>
       <c r="C73" s="9"/>
       <c r="D73" s="10"/>
@@ -1231,7 +1264,7 @@
       </c>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
       <c r="D74" s="10"/>
@@ -1241,7 +1274,7 @@
       </c>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
       <c r="D75" s="10"/>
@@ -1251,7 +1284,7 @@
       </c>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="2:6">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B76" s="8"/>
       <c r="C76" s="9"/>
       <c r="D76" s="10"/>
@@ -1261,7 +1294,7 @@
       </c>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="2:6">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B77" s="8"/>
       <c r="C77" s="9"/>
       <c r="D77" s="10"/>
@@ -1271,7 +1304,7 @@
       </c>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="2:6">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B78" s="8"/>
       <c r="C78" s="9"/>
       <c r="D78" s="10"/>
@@ -1281,7 +1314,7 @@
       </c>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="2:6">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B79" s="8"/>
       <c r="C79" s="9"/>
       <c r="D79" s="10"/>
@@ -1291,7 +1324,7 @@
       </c>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="2:6">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B80" s="8"/>
       <c r="C80" s="9"/>
       <c r="D80" s="10"/>
@@ -1301,7 +1334,7 @@
       </c>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="2:6">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
       <c r="D81" s="10"/>
@@ -1311,7 +1344,7 @@
       </c>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="2:6">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B82" s="8"/>
       <c r="C82" s="9"/>
       <c r="D82" s="10"/>
@@ -1321,7 +1354,7 @@
       </c>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="2:6">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
       <c r="D83" s="10"/>
@@ -1331,7 +1364,7 @@
       </c>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="2:6">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B84" s="8"/>
       <c r="C84" s="9"/>
       <c r="D84" s="10"/>
@@ -1341,7 +1374,7 @@
       </c>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="2:6">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B85" s="8"/>
       <c r="C85" s="9"/>
       <c r="D85" s="10"/>
@@ -1351,7 +1384,7 @@
       </c>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="2:6">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B86" s="8"/>
       <c r="C86" s="9"/>
       <c r="D86" s="10"/>
@@ -1361,7 +1394,7 @@
       </c>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="2:6">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
       <c r="D87" s="10"/>
@@ -1371,7 +1404,7 @@
       </c>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="2:6">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
       <c r="D88" s="10"/>
@@ -1381,7 +1414,7 @@
       </c>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="2:6">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
       <c r="D89" s="10"/>
@@ -1391,7 +1424,7 @@
       </c>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="2:6">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
       <c r="D90" s="10"/>
@@ -1401,7 +1434,7 @@
       </c>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="2:6">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
       <c r="D91" s="10"/>
@@ -1411,7 +1444,7 @@
       </c>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="2:6">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
       <c r="D92" s="10"/>
@@ -1421,7 +1454,7 @@
       </c>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="2:6">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B93" s="8"/>
       <c r="C93" s="9"/>
       <c r="D93" s="10"/>
@@ -1431,7 +1464,7 @@
       </c>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="2:6">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B94" s="8"/>
       <c r="C94" s="9"/>
       <c r="D94" s="10"/>
@@ -1441,7 +1474,7 @@
       </c>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="2:6">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
       <c r="D95" s="10"/>
@@ -1451,7 +1484,7 @@
       </c>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" spans="2:6">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
       <c r="D96" s="10"/>
@@ -1461,7 +1494,7 @@
       </c>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="2:6">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
       <c r="D97" s="10"/>
@@ -1471,7 +1504,7 @@
       </c>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="2:6">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
       <c r="D98" s="10"/>
@@ -1481,7 +1514,7 @@
       </c>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="2:6">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B99" s="8"/>
       <c r="C99" s="9"/>
       <c r="D99" s="10"/>
@@ -1491,7 +1524,7 @@
       </c>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="2:6">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B100" s="8"/>
       <c r="C100" s="9"/>
       <c r="D100" s="10"/>
@@ -1501,7 +1534,7 @@
       </c>
       <c r="F100" s="10"/>
     </row>
-    <row r="101" spans="2:6">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B101" s="8"/>
       <c r="C101" s="9"/>
       <c r="D101" s="10"/>
@@ -1511,7 +1544,7 @@
       </c>
       <c r="F101" s="10"/>
     </row>
-    <row r="102" spans="2:6">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B102" s="8"/>
       <c r="C102" s="9"/>
       <c r="D102" s="10"/>
@@ -1521,7 +1554,7 @@
       </c>
       <c r="F102" s="10"/>
     </row>
-    <row r="103" spans="2:6">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B103" s="8"/>
       <c r="C103" s="9"/>
       <c r="D103" s="10"/>
@@ -1531,7 +1564,7 @@
       </c>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="2:6">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B104" s="8"/>
       <c r="C104" s="9"/>
       <c r="D104" s="10"/>
@@ -1541,7 +1574,7 @@
       </c>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="2:6">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B105" s="8"/>
       <c r="C105" s="9"/>
       <c r="D105" s="10"/>
@@ -1551,7 +1584,7 @@
       </c>
       <c r="F105" s="10"/>
     </row>
-    <row r="106" spans="2:6">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B106" s="8"/>
       <c r="C106" s="9"/>
       <c r="D106" s="10"/>
@@ -1561,7 +1594,7 @@
       </c>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" spans="2:6">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B107" s="8"/>
       <c r="C107" s="9"/>
       <c r="D107" s="10"/>
@@ -1571,7 +1604,7 @@
       </c>
       <c r="F107" s="10"/>
     </row>
-    <row r="108" spans="2:6">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B108" s="8"/>
       <c r="C108" s="9"/>
       <c r="D108" s="10"/>
@@ -1581,7 +1614,7 @@
       </c>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="2:6">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B109" s="8"/>
       <c r="C109" s="9"/>
       <c r="D109" s="10"/>
@@ -1591,7 +1624,7 @@
       </c>
       <c r="F109" s="10"/>
     </row>
-    <row r="110" spans="2:6">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B110" s="8"/>
       <c r="C110" s="9"/>
       <c r="D110" s="10"/>
@@ -1601,7 +1634,7 @@
       </c>
       <c r="F110" s="10"/>
     </row>
-    <row r="111" spans="2:6">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B111" s="8"/>
       <c r="C111" s="9"/>
       <c r="D111" s="10"/>
@@ -1611,7 +1644,7 @@
       </c>
       <c r="F111" s="10"/>
     </row>
-    <row r="112" spans="2:6">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B112" s="8"/>
       <c r="C112" s="9"/>
       <c r="D112" s="10"/>
@@ -1621,7 +1654,7 @@
       </c>
       <c r="F112" s="10"/>
     </row>
-    <row r="113" spans="2:6">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B113" s="8"/>
       <c r="C113" s="9"/>
       <c r="D113" s="10"/>
@@ -1631,7 +1664,7 @@
       </c>
       <c r="F113" s="10"/>
     </row>
-    <row r="114" spans="2:6">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B114" s="8"/>
       <c r="C114" s="9"/>
       <c r="D114" s="10"/>
@@ -1641,7 +1674,7 @@
       </c>
       <c r="F114" s="10"/>
     </row>
-    <row r="115" spans="2:6">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B115" s="8"/>
       <c r="C115" s="9"/>
       <c r="D115" s="10"/>
@@ -1651,7 +1684,7 @@
       </c>
       <c r="F115" s="10"/>
     </row>
-    <row r="116" spans="2:6">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B116" s="8"/>
       <c r="C116" s="9"/>
       <c r="D116" s="10"/>
@@ -1661,7 +1694,7 @@
       </c>
       <c r="F116" s="10"/>
     </row>
-    <row r="117" spans="2:6">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B117" s="8"/>
       <c r="C117" s="9"/>
       <c r="D117" s="10"/>
@@ -1671,7 +1704,7 @@
       </c>
       <c r="F117" s="10"/>
     </row>
-    <row r="118" spans="2:6">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B118" s="8"/>
       <c r="C118" s="9"/>
       <c r="D118" s="10"/>
@@ -1681,7 +1714,7 @@
       </c>
       <c r="F118" s="10"/>
     </row>
-    <row r="119" spans="2:6">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B119" s="8"/>
       <c r="C119" s="9"/>
       <c r="D119" s="10"/>
@@ -1691,7 +1724,7 @@
       </c>
       <c r="F119" s="10"/>
     </row>
-    <row r="120" spans="2:6">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B120" s="8"/>
       <c r="C120" s="9"/>
       <c r="D120" s="10"/>
@@ -1701,7 +1734,7 @@
       </c>
       <c r="F120" s="10"/>
     </row>
-    <row r="121" spans="2:6">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B121" s="8"/>
       <c r="C121" s="9"/>
       <c r="D121" s="10"/>
@@ -1711,7 +1744,7 @@
       </c>
       <c r="F121" s="10"/>
     </row>
-    <row r="122" spans="2:6">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B122" s="8"/>
       <c r="C122" s="9"/>
       <c r="D122" s="10"/>
@@ -1721,7 +1754,7 @@
       </c>
       <c r="F122" s="10"/>
     </row>
-    <row r="123" spans="2:6">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B123" s="8"/>
       <c r="C123" s="9"/>
       <c r="D123" s="10"/>
@@ -1731,7 +1764,7 @@
       </c>
       <c r="F123" s="10"/>
     </row>
-    <row r="124" spans="2:6">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B124" s="8"/>
       <c r="C124" s="9"/>
       <c r="D124" s="10"/>
@@ -1741,7 +1774,7 @@
       </c>
       <c r="F124" s="10"/>
     </row>
-    <row r="125" spans="2:6">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B125" s="8"/>
       <c r="C125" s="9"/>
       <c r="D125" s="10"/>
@@ -1751,7 +1784,7 @@
       </c>
       <c r="F125" s="10"/>
     </row>
-    <row r="126" spans="2:6">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B126" s="8"/>
       <c r="C126" s="9"/>
       <c r="D126" s="10"/>
@@ -1761,7 +1794,7 @@
       </c>
       <c r="F126" s="10"/>
     </row>
-    <row r="127" spans="2:6">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B127" s="8"/>
       <c r="C127" s="9"/>
       <c r="D127" s="10"/>
@@ -1771,7 +1804,7 @@
       </c>
       <c r="F127" s="10"/>
     </row>
-    <row r="128" spans="2:6">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B128" s="8"/>
       <c r="C128" s="9"/>
       <c r="D128" s="10"/>
@@ -1781,7 +1814,7 @@
       </c>
       <c r="F128" s="10"/>
     </row>
-    <row r="129" spans="2:6">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B129" s="8"/>
       <c r="C129" s="9"/>
       <c r="D129" s="10"/>
@@ -1791,7 +1824,7 @@
       </c>
       <c r="F129" s="10"/>
     </row>
-    <row r="130" spans="2:6">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B130" s="8"/>
       <c r="C130" s="9"/>
       <c r="D130" s="10"/>
@@ -1801,7 +1834,7 @@
       </c>
       <c r="F130" s="10"/>
     </row>
-    <row r="131" spans="2:6">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B131" s="8"/>
       <c r="C131" s="9"/>
       <c r="D131" s="10"/>
@@ -1811,7 +1844,7 @@
       </c>
       <c r="F131" s="10"/>
     </row>
-    <row r="132" spans="2:6">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B132" s="8"/>
       <c r="C132" s="9"/>
       <c r="D132" s="10"/>
@@ -1821,7 +1854,7 @@
       </c>
       <c r="F132" s="10"/>
     </row>
-    <row r="133" spans="2:6">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B133" s="8"/>
       <c r="C133" s="9"/>
       <c r="D133" s="10"/>
@@ -1831,7 +1864,7 @@
       </c>
       <c r="F133" s="10"/>
     </row>
-    <row r="134" spans="2:6">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B134" s="8"/>
       <c r="C134" s="9"/>
       <c r="D134" s="10"/>
@@ -1844,6 +1877,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/彩票购买统计.xlsx
+++ b/彩票购买统计.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>利润率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福彩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福彩中奖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -154,6 +162,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -493,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:I134"/>
+  <dimension ref="B4:J134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -505,12 +515,12 @@
     <col min="3" max="3" width="16.8125" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.3125" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.8125" style="2"/>
+    <col min="6" max="7" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.8125" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -526,15 +536,21 @@
       <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <f>SUM(E5:E134)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="8">
         <v>42996</v>
       </c>
@@ -549,15 +565,16 @@
         <v>10</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="14"/>
+      <c r="I5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <f>SUM(F5:F134)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="8">
         <v>42997</v>
       </c>
@@ -570,8 +587,9 @@
         <v>10</v>
       </c>
       <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="8">
         <v>42998</v>
       </c>
@@ -584,15 +602,16 @@
         <v>10</v>
       </c>
       <c r="F7" s="10"/>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="14"/>
+      <c r="I7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="2">
-        <f>((I5-I4)/I4)*100</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J7" s="2">
+        <f>((J5-J4)/J4)*100</f>
+        <v>213.75000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="8">
         <v>42999</v>
       </c>
@@ -605,8 +624,9 @@
         <v>10</v>
       </c>
       <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="8">
         <v>43000</v>
       </c>
@@ -619,8 +639,9 @@
         <v>10</v>
       </c>
       <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="8">
         <v>43001</v>
       </c>
@@ -633,28 +654,43 @@
         <v>10</v>
       </c>
       <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="8"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="8">
+        <v>43002</v>
+      </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10">
+        <v>5</v>
+      </c>
       <c r="E11" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F11" s="10">
+        <v>251</v>
+      </c>
+      <c r="G11" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="8">
+        <v>43003</v>
+      </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10">
+        <v>5</v>
+      </c>
       <c r="E12" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -663,8 +699,9 @@
         <v>0</v>
       </c>
       <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
@@ -673,8 +710,9 @@
         <v>0</v>
       </c>
       <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -683,8 +721,9 @@
         <v>0</v>
       </c>
       <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -693,8 +732,9 @@
         <v>0</v>
       </c>
       <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
@@ -703,8 +743,9 @@
         <v>0</v>
       </c>
       <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
@@ -713,8 +754,9 @@
         <v>0</v>
       </c>
       <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -723,8 +765,9 @@
         <v>0</v>
       </c>
       <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
@@ -733,8 +776,9 @@
         <v>0</v>
       </c>
       <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
@@ -743,8 +787,9 @@
         <v>0</v>
       </c>
       <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
@@ -753,8 +798,9 @@
         <v>0</v>
       </c>
       <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
@@ -763,8 +809,9 @@
         <v>0</v>
       </c>
       <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
@@ -773,8 +820,9 @@
         <v>0</v>
       </c>
       <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -783,8 +831,9 @@
         <v>0</v>
       </c>
       <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
@@ -793,8 +842,9 @@
         <v>0</v>
       </c>
       <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
@@ -803,8 +853,9 @@
         <v>0</v>
       </c>
       <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -813,8 +864,9 @@
         <v>0</v>
       </c>
       <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -823,8 +875,9 @@
         <v>0</v>
       </c>
       <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
@@ -833,8 +886,9 @@
         <v>0</v>
       </c>
       <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
@@ -843,8 +897,9 @@
         <v>0</v>
       </c>
       <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="10"/>
@@ -853,8 +908,9 @@
         <v>0</v>
       </c>
       <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
@@ -863,8 +919,9 @@
         <v>0</v>
       </c>
       <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
@@ -873,8 +930,9 @@
         <v>0</v>
       </c>
       <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
@@ -883,8 +941,9 @@
         <v>0</v>
       </c>
       <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
@@ -893,8 +952,9 @@
         <v>0</v>
       </c>
       <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -903,8 +963,9 @@
         <v>0</v>
       </c>
       <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -913,8 +974,9 @@
         <v>0</v>
       </c>
       <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -923,8 +985,9 @@
         <v>0</v>
       </c>
       <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
@@ -933,8 +996,9 @@
         <v>0</v>
       </c>
       <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
@@ -943,8 +1007,9 @@
         <v>0</v>
       </c>
       <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
       <c r="D42" s="10"/>
@@ -953,8 +1018,9 @@
         <v>0</v>
       </c>
       <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
@@ -963,8 +1029,9 @@
         <v>0</v>
       </c>
       <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
@@ -973,8 +1040,9 @@
         <v>0</v>
       </c>
       <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -983,8 +1051,9 @@
         <v>0</v>
       </c>
       <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
       <c r="D46" s="10"/>
@@ -993,8 +1062,9 @@
         <v>0</v>
       </c>
       <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
       <c r="D47" s="10"/>
@@ -1003,8 +1073,9 @@
         <v>0</v>
       </c>
       <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G47" s="14"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
@@ -1013,8 +1084,9 @@
         <v>0</v>
       </c>
       <c r="F48" s="10"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
       <c r="D49" s="10"/>
@@ -1023,8 +1095,9 @@
         <v>0</v>
       </c>
       <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G49" s="14"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
       <c r="D50" s="10"/>
@@ -1033,8 +1106,9 @@
         <v>0</v>
       </c>
       <c r="F50" s="10"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10"/>
@@ -1043,8 +1117,9 @@
         <v>0</v>
       </c>
       <c r="F51" s="10"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
       <c r="D52" s="10"/>
@@ -1053,8 +1128,9 @@
         <v>0</v>
       </c>
       <c r="F52" s="10"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
       <c r="D53" s="10"/>
@@ -1063,8 +1139,9 @@
         <v>0</v>
       </c>
       <c r="F53" s="10"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
       <c r="D54" s="10"/>
@@ -1073,8 +1150,9 @@
         <v>0</v>
       </c>
       <c r="F54" s="10"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G54" s="14"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
       <c r="D55" s="10"/>
@@ -1083,8 +1161,9 @@
         <v>0</v>
       </c>
       <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G55" s="14"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
       <c r="D56" s="10"/>
@@ -1093,8 +1172,9 @@
         <v>0</v>
       </c>
       <c r="F56" s="10"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
       <c r="D57" s="10"/>
@@ -1103,8 +1183,9 @@
         <v>0</v>
       </c>
       <c r="F57" s="10"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G57" s="14"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
       <c r="D58" s="10"/>
@@ -1113,8 +1194,9 @@
         <v>0</v>
       </c>
       <c r="F58" s="10"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G58" s="14"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
@@ -1123,8 +1205,9 @@
         <v>0</v>
       </c>
       <c r="F59" s="10"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G59" s="14"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
       <c r="D60" s="10"/>
@@ -1133,8 +1216,9 @@
         <v>0</v>
       </c>
       <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G60" s="14"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
       <c r="D61" s="10"/>
@@ -1143,8 +1227,9 @@
         <v>0</v>
       </c>
       <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G61" s="14"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
       <c r="D62" s="10"/>
@@ -1153,8 +1238,9 @@
         <v>0</v>
       </c>
       <c r="F62" s="10"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G62" s="14"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" s="8"/>
       <c r="C63" s="9"/>
       <c r="D63" s="10"/>
@@ -1163,8 +1249,9 @@
         <v>0</v>
       </c>
       <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G63" s="14"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
       <c r="D64" s="10"/>
@@ -1173,8 +1260,9 @@
         <v>0</v>
       </c>
       <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G64" s="14"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
       <c r="D65" s="10"/>
@@ -1183,8 +1271,9 @@
         <v>0</v>
       </c>
       <c r="F65" s="10"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
       <c r="D66" s="10"/>
@@ -1193,8 +1282,9 @@
         <v>0</v>
       </c>
       <c r="F66" s="10"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G66" s="14"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
       <c r="D67" s="10"/>
@@ -1203,8 +1293,9 @@
         <v>0</v>
       </c>
       <c r="F67" s="10"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G67" s="14"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="8"/>
       <c r="C68" s="9"/>
       <c r="D68" s="10"/>
@@ -1213,8 +1304,9 @@
         <v>0</v>
       </c>
       <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G68" s="14"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
       <c r="D69" s="10"/>
@@ -1223,8 +1315,9 @@
         <v>0</v>
       </c>
       <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G69" s="14"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="8"/>
       <c r="C70" s="9"/>
       <c r="D70" s="10"/>
@@ -1233,8 +1326,9 @@
         <v>0</v>
       </c>
       <c r="F70" s="10"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
       <c r="D71" s="10"/>
@@ -1243,8 +1337,9 @@
         <v>0</v>
       </c>
       <c r="F71" s="10"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G71" s="14"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
       <c r="D72" s="10"/>
@@ -1253,8 +1348,9 @@
         <v>0</v>
       </c>
       <c r="F72" s="10"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G72" s="14"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="8"/>
       <c r="C73" s="9"/>
       <c r="D73" s="10"/>
@@ -1263,8 +1359,9 @@
         <v>0</v>
       </c>
       <c r="F73" s="10"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G73" s="14"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
       <c r="D74" s="10"/>
@@ -1273,8 +1370,9 @@
         <v>0</v>
       </c>
       <c r="F74" s="10"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
       <c r="D75" s="10"/>
@@ -1283,8 +1381,9 @@
         <v>0</v>
       </c>
       <c r="F75" s="10"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B76" s="8"/>
       <c r="C76" s="9"/>
       <c r="D76" s="10"/>
@@ -1293,8 +1392,9 @@
         <v>0</v>
       </c>
       <c r="F76" s="10"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G76" s="14"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="8"/>
       <c r="C77" s="9"/>
       <c r="D77" s="10"/>
@@ -1303,8 +1403,9 @@
         <v>0</v>
       </c>
       <c r="F77" s="10"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G77" s="14"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78" s="8"/>
       <c r="C78" s="9"/>
       <c r="D78" s="10"/>
@@ -1313,8 +1414,9 @@
         <v>0</v>
       </c>
       <c r="F78" s="10"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G78" s="14"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B79" s="8"/>
       <c r="C79" s="9"/>
       <c r="D79" s="10"/>
@@ -1323,8 +1425,9 @@
         <v>0</v>
       </c>
       <c r="F79" s="10"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G79" s="14"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B80" s="8"/>
       <c r="C80" s="9"/>
       <c r="D80" s="10"/>
@@ -1333,8 +1436,9 @@
         <v>0</v>
       </c>
       <c r="F80" s="10"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G80" s="14"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
       <c r="D81" s="10"/>
@@ -1343,8 +1447,9 @@
         <v>0</v>
       </c>
       <c r="F81" s="10"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G81" s="14"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B82" s="8"/>
       <c r="C82" s="9"/>
       <c r="D82" s="10"/>
@@ -1353,8 +1458,9 @@
         <v>0</v>
       </c>
       <c r="F82" s="10"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G82" s="14"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
       <c r="D83" s="10"/>
@@ -1363,8 +1469,9 @@
         <v>0</v>
       </c>
       <c r="F83" s="10"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G83" s="14"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B84" s="8"/>
       <c r="C84" s="9"/>
       <c r="D84" s="10"/>
@@ -1373,8 +1480,9 @@
         <v>0</v>
       </c>
       <c r="F84" s="10"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G84" s="14"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B85" s="8"/>
       <c r="C85" s="9"/>
       <c r="D85" s="10"/>
@@ -1383,8 +1491,9 @@
         <v>0</v>
       </c>
       <c r="F85" s="10"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G85" s="14"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B86" s="8"/>
       <c r="C86" s="9"/>
       <c r="D86" s="10"/>
@@ -1393,8 +1502,9 @@
         <v>0</v>
       </c>
       <c r="F86" s="10"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G86" s="14"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
       <c r="D87" s="10"/>
@@ -1403,8 +1513,9 @@
         <v>0</v>
       </c>
       <c r="F87" s="10"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G87" s="14"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
       <c r="D88" s="10"/>
@@ -1413,8 +1524,9 @@
         <v>0</v>
       </c>
       <c r="F88" s="10"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G88" s="14"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
       <c r="D89" s="10"/>
@@ -1423,8 +1535,9 @@
         <v>0</v>
       </c>
       <c r="F89" s="10"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G89" s="14"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
       <c r="D90" s="10"/>
@@ -1433,8 +1546,9 @@
         <v>0</v>
       </c>
       <c r="F90" s="10"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G90" s="14"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
       <c r="D91" s="10"/>
@@ -1443,8 +1557,9 @@
         <v>0</v>
       </c>
       <c r="F91" s="10"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G91" s="14"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
       <c r="D92" s="10"/>
@@ -1453,8 +1568,9 @@
         <v>0</v>
       </c>
       <c r="F92" s="10"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G92" s="14"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B93" s="8"/>
       <c r="C93" s="9"/>
       <c r="D93" s="10"/>
@@ -1463,8 +1579,9 @@
         <v>0</v>
       </c>
       <c r="F93" s="10"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G93" s="14"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B94" s="8"/>
       <c r="C94" s="9"/>
       <c r="D94" s="10"/>
@@ -1473,8 +1590,9 @@
         <v>0</v>
       </c>
       <c r="F94" s="10"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G94" s="14"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
       <c r="D95" s="10"/>
@@ -1483,8 +1601,9 @@
         <v>0</v>
       </c>
       <c r="F95" s="10"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G95" s="14"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
       <c r="D96" s="10"/>
@@ -1493,8 +1612,9 @@
         <v>0</v>
       </c>
       <c r="F96" s="10"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G96" s="14"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
       <c r="D97" s="10"/>
@@ -1503,8 +1623,9 @@
         <v>0</v>
       </c>
       <c r="F97" s="10"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G97" s="14"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
       <c r="D98" s="10"/>
@@ -1513,8 +1634,9 @@
         <v>0</v>
       </c>
       <c r="F98" s="10"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G98" s="14"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B99" s="8"/>
       <c r="C99" s="9"/>
       <c r="D99" s="10"/>
@@ -1523,8 +1645,9 @@
         <v>0</v>
       </c>
       <c r="F99" s="10"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G99" s="14"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B100" s="8"/>
       <c r="C100" s="9"/>
       <c r="D100" s="10"/>
@@ -1533,8 +1656,9 @@
         <v>0</v>
       </c>
       <c r="F100" s="10"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G100" s="14"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B101" s="8"/>
       <c r="C101" s="9"/>
       <c r="D101" s="10"/>
@@ -1543,8 +1667,9 @@
         <v>0</v>
       </c>
       <c r="F101" s="10"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G101" s="14"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B102" s="8"/>
       <c r="C102" s="9"/>
       <c r="D102" s="10"/>
@@ -1553,8 +1678,9 @@
         <v>0</v>
       </c>
       <c r="F102" s="10"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G102" s="14"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B103" s="8"/>
       <c r="C103" s="9"/>
       <c r="D103" s="10"/>
@@ -1563,8 +1689,9 @@
         <v>0</v>
       </c>
       <c r="F103" s="10"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G103" s="14"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B104" s="8"/>
       <c r="C104" s="9"/>
       <c r="D104" s="10"/>
@@ -1573,8 +1700,9 @@
         <v>0</v>
       </c>
       <c r="F104" s="10"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G104" s="14"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B105" s="8"/>
       <c r="C105" s="9"/>
       <c r="D105" s="10"/>
@@ -1583,8 +1711,9 @@
         <v>0</v>
       </c>
       <c r="F105" s="10"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G105" s="14"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B106" s="8"/>
       <c r="C106" s="9"/>
       <c r="D106" s="10"/>
@@ -1593,8 +1722,9 @@
         <v>0</v>
       </c>
       <c r="F106" s="10"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G106" s="14"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B107" s="8"/>
       <c r="C107" s="9"/>
       <c r="D107" s="10"/>
@@ -1603,8 +1733,9 @@
         <v>0</v>
       </c>
       <c r="F107" s="10"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G107" s="14"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B108" s="8"/>
       <c r="C108" s="9"/>
       <c r="D108" s="10"/>
@@ -1613,8 +1744,9 @@
         <v>0</v>
       </c>
       <c r="F108" s="10"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G108" s="14"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B109" s="8"/>
       <c r="C109" s="9"/>
       <c r="D109" s="10"/>
@@ -1623,8 +1755,9 @@
         <v>0</v>
       </c>
       <c r="F109" s="10"/>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G109" s="14"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B110" s="8"/>
       <c r="C110" s="9"/>
       <c r="D110" s="10"/>
@@ -1633,8 +1766,9 @@
         <v>0</v>
       </c>
       <c r="F110" s="10"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G110" s="14"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B111" s="8"/>
       <c r="C111" s="9"/>
       <c r="D111" s="10"/>
@@ -1643,8 +1777,9 @@
         <v>0</v>
       </c>
       <c r="F111" s="10"/>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G111" s="14"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B112" s="8"/>
       <c r="C112" s="9"/>
       <c r="D112" s="10"/>
@@ -1653,8 +1788,9 @@
         <v>0</v>
       </c>
       <c r="F112" s="10"/>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G112" s="14"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B113" s="8"/>
       <c r="C113" s="9"/>
       <c r="D113" s="10"/>
@@ -1663,8 +1799,9 @@
         <v>0</v>
       </c>
       <c r="F113" s="10"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G113" s="14"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B114" s="8"/>
       <c r="C114" s="9"/>
       <c r="D114" s="10"/>
@@ -1673,8 +1810,9 @@
         <v>0</v>
       </c>
       <c r="F114" s="10"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G114" s="14"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B115" s="8"/>
       <c r="C115" s="9"/>
       <c r="D115" s="10"/>
@@ -1683,8 +1821,9 @@
         <v>0</v>
       </c>
       <c r="F115" s="10"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G115" s="14"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B116" s="8"/>
       <c r="C116" s="9"/>
       <c r="D116" s="10"/>
@@ -1693,8 +1832,9 @@
         <v>0</v>
       </c>
       <c r="F116" s="10"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G116" s="14"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B117" s="8"/>
       <c r="C117" s="9"/>
       <c r="D117" s="10"/>
@@ -1703,8 +1843,9 @@
         <v>0</v>
       </c>
       <c r="F117" s="10"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G117" s="14"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B118" s="8"/>
       <c r="C118" s="9"/>
       <c r="D118" s="10"/>
@@ -1713,8 +1854,9 @@
         <v>0</v>
       </c>
       <c r="F118" s="10"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G118" s="14"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B119" s="8"/>
       <c r="C119" s="9"/>
       <c r="D119" s="10"/>
@@ -1723,8 +1865,9 @@
         <v>0</v>
       </c>
       <c r="F119" s="10"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G119" s="14"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B120" s="8"/>
       <c r="C120" s="9"/>
       <c r="D120" s="10"/>
@@ -1733,8 +1876,9 @@
         <v>0</v>
       </c>
       <c r="F120" s="10"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G120" s="14"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B121" s="8"/>
       <c r="C121" s="9"/>
       <c r="D121" s="10"/>
@@ -1743,8 +1887,9 @@
         <v>0</v>
       </c>
       <c r="F121" s="10"/>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G121" s="14"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B122" s="8"/>
       <c r="C122" s="9"/>
       <c r="D122" s="10"/>
@@ -1753,8 +1898,9 @@
         <v>0</v>
       </c>
       <c r="F122" s="10"/>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G122" s="14"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B123" s="8"/>
       <c r="C123" s="9"/>
       <c r="D123" s="10"/>
@@ -1763,8 +1909,9 @@
         <v>0</v>
       </c>
       <c r="F123" s="10"/>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G123" s="14"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B124" s="8"/>
       <c r="C124" s="9"/>
       <c r="D124" s="10"/>
@@ -1773,8 +1920,9 @@
         <v>0</v>
       </c>
       <c r="F124" s="10"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G124" s="14"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B125" s="8"/>
       <c r="C125" s="9"/>
       <c r="D125" s="10"/>
@@ -1783,8 +1931,9 @@
         <v>0</v>
       </c>
       <c r="F125" s="10"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G125" s="14"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B126" s="8"/>
       <c r="C126" s="9"/>
       <c r="D126" s="10"/>
@@ -1793,8 +1942,9 @@
         <v>0</v>
       </c>
       <c r="F126" s="10"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G126" s="14"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B127" s="8"/>
       <c r="C127" s="9"/>
       <c r="D127" s="10"/>
@@ -1803,8 +1953,9 @@
         <v>0</v>
       </c>
       <c r="F127" s="10"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G127" s="14"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B128" s="8"/>
       <c r="C128" s="9"/>
       <c r="D128" s="10"/>
@@ -1813,8 +1964,9 @@
         <v>0</v>
       </c>
       <c r="F128" s="10"/>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G128" s="14"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B129" s="8"/>
       <c r="C129" s="9"/>
       <c r="D129" s="10"/>
@@ -1823,8 +1975,9 @@
         <v>0</v>
       </c>
       <c r="F129" s="10"/>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G129" s="14"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B130" s="8"/>
       <c r="C130" s="9"/>
       <c r="D130" s="10"/>
@@ -1833,8 +1986,9 @@
         <v>0</v>
       </c>
       <c r="F130" s="10"/>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G130" s="14"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B131" s="8"/>
       <c r="C131" s="9"/>
       <c r="D131" s="10"/>
@@ -1843,8 +1997,9 @@
         <v>0</v>
       </c>
       <c r="F131" s="10"/>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G131" s="14"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B132" s="8"/>
       <c r="C132" s="9"/>
       <c r="D132" s="10"/>
@@ -1853,8 +2008,9 @@
         <v>0</v>
       </c>
       <c r="F132" s="10"/>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G132" s="14"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B133" s="8"/>
       <c r="C133" s="9"/>
       <c r="D133" s="10"/>
@@ -1863,8 +2019,9 @@
         <v>0</v>
       </c>
       <c r="F133" s="10"/>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G133" s="14"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B134" s="8"/>
       <c r="C134" s="9"/>
       <c r="D134" s="10"/>
@@ -1873,6 +2030,7 @@
         <v>0</v>
       </c>
       <c r="F134" s="10"/>
+      <c r="G134" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/彩票购买统计.xlsx
+++ b/彩票购买统计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -75,7 +75,7 @@
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,6 +86,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -148,22 +156,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -506,48 +515,51 @@
   <dimension ref="B4:J134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.8125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.3125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="7" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.8125" style="2"/>
+    <col min="1" max="1" width="11" style="7"/>
+    <col min="2" max="2" width="13" style="14" customWidth="1"/>
+    <col min="3" max="3" width="16.8125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="13.3125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="7" customWidth="1"/>
+    <col min="6" max="7" width="14.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11" style="7"/>
+    <col min="9" max="9" width="11.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.8125" style="6"/>
+    <col min="11" max="16384" width="11" style="7"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="I4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="6">
         <f>SUM(E5:E134)</f>
-        <v>80</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
@@ -565,13 +577,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="14"/>
-      <c r="I5" s="4" t="s">
+      <c r="G5" s="11"/>
+      <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="6">
         <f>SUM(F5:F134)</f>
-        <v>251</v>
+        <v>943</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
@@ -587,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="14"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="8">
@@ -602,13 +614,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="10"/>
-      <c r="G7" s="14"/>
-      <c r="I7" s="12" t="s">
+      <c r="G7" s="11"/>
+      <c r="I7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="6">
         <f>((J5-J4)/J4)*100</f>
-        <v>213.75000000000003</v>
+        <v>292.91666666666669</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
@@ -624,7 +636,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="10"/>
-      <c r="G8" s="14"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="8">
@@ -639,7 +651,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="14"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="8">
@@ -654,7 +666,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="8">
@@ -671,7 +683,7 @@
       <c r="F11" s="10">
         <v>251</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="11">
         <v>10</v>
       </c>
     </row>
@@ -688,183 +700,253 @@
         <v>10</v>
       </c>
       <c r="F12" s="10"/>
-      <c r="G12" s="14"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="8"/>
+      <c r="B13" s="8">
+        <v>43004</v>
+      </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10">
+        <v>5</v>
+      </c>
       <c r="E13" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13" s="10"/>
-      <c r="G13" s="14"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="8"/>
+      <c r="B14" s="8">
+        <v>43005</v>
+      </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10">
+        <v>5</v>
+      </c>
       <c r="E14" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="14"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="8"/>
+      <c r="B15" s="8">
+        <v>43006</v>
+      </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10">
+        <v>5</v>
+      </c>
       <c r="E15" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F15" s="10"/>
-      <c r="G15" s="14"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="8"/>
+      <c r="B16" s="8">
+        <v>43007</v>
+      </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10">
+        <v>5</v>
+      </c>
       <c r="E16" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F16" s="10"/>
-      <c r="G16" s="14"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="8"/>
+      <c r="B17" s="8">
+        <v>43008</v>
+      </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10">
+        <v>5</v>
+      </c>
       <c r="E17" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="14"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="8"/>
+      <c r="B18" s="8">
+        <v>43009</v>
+      </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10">
+        <v>5</v>
+      </c>
       <c r="E18" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F18" s="10"/>
-      <c r="G18" s="14"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="8"/>
+      <c r="B19" s="8">
+        <v>43010</v>
+      </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10">
+        <v>5</v>
+      </c>
       <c r="E19" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="F19" s="10">
+        <v>173</v>
+      </c>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="8"/>
+      <c r="B20" s="8">
+        <v>43011</v>
+      </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10">
+        <v>5</v>
+      </c>
       <c r="E20" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F20" s="10"/>
-      <c r="G20" s="14"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="8"/>
+      <c r="B21" s="8">
+        <v>43012</v>
+      </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10">
+        <v>5</v>
+      </c>
       <c r="E21" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="14"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="8"/>
+      <c r="B22" s="8">
+        <v>43013</v>
+      </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10">
+        <v>5</v>
+      </c>
       <c r="E22" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F22" s="10"/>
-      <c r="G22" s="14"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="8"/>
+      <c r="B23" s="8">
+        <v>43014</v>
+      </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
+      <c r="D23" s="10">
+        <v>5</v>
+      </c>
       <c r="E23" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F23" s="10"/>
-      <c r="G23" s="14"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="8"/>
+      <c r="B24" s="8">
+        <v>43015</v>
+      </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
+      <c r="D24" s="10">
+        <v>5</v>
+      </c>
       <c r="E24" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="F24" s="10">
+        <v>173</v>
+      </c>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="8"/>
+      <c r="B25" s="8">
+        <v>43016</v>
+      </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
+      <c r="D25" s="10">
+        <v>5</v>
+      </c>
       <c r="E25" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F25" s="10"/>
-      <c r="G25" s="14"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="8"/>
+      <c r="B26" s="8">
+        <v>43017</v>
+      </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
+      <c r="D26" s="10">
+        <v>5</v>
+      </c>
       <c r="E26" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="F26" s="10">
+        <v>346</v>
+      </c>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="8"/>
+      <c r="B27" s="8">
+        <v>43018</v>
+      </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
+      <c r="D27" s="10">
+        <v>5</v>
+      </c>
       <c r="E27" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F27" s="10"/>
-      <c r="G27" s="14"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="8"/>
+      <c r="B28" s="8">
+        <v>43019</v>
+      </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="D28" s="10">
+        <v>5</v>
+      </c>
       <c r="E28" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F28" s="10"/>
-      <c r="G28" s="14"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="8"/>
@@ -875,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="10"/>
-      <c r="G29" s="14"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="8"/>
@@ -886,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="10"/>
-      <c r="G30" s="14"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="8"/>
@@ -897,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="10"/>
-      <c r="G31" s="14"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="8"/>
@@ -908,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="10"/>
-      <c r="G32" s="14"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="8"/>
@@ -919,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="10"/>
-      <c r="G33" s="14"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="8"/>
@@ -930,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="10"/>
-      <c r="G34" s="14"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="8"/>
@@ -941,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="10"/>
-      <c r="G35" s="14"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="8"/>
@@ -952,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="10"/>
-      <c r="G36" s="14"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="8"/>
@@ -963,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="10"/>
-      <c r="G37" s="14"/>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="8"/>
@@ -974,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="10"/>
-      <c r="G38" s="14"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="8"/>
@@ -985,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="10"/>
-      <c r="G39" s="14"/>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="8"/>
@@ -996,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="10"/>
-      <c r="G40" s="14"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="8"/>
@@ -1007,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="10"/>
-      <c r="G41" s="14"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="8"/>
@@ -1018,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="10"/>
-      <c r="G42" s="14"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="8"/>
@@ -1029,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="10"/>
-      <c r="G43" s="14"/>
+      <c r="G43" s="11"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="8"/>
@@ -1040,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="10"/>
-      <c r="G44" s="14"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="8"/>
@@ -1051,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="10"/>
-      <c r="G45" s="14"/>
+      <c r="G45" s="11"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="8"/>
@@ -1062,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="10"/>
-      <c r="G46" s="14"/>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="8"/>
@@ -1073,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="10"/>
-      <c r="G47" s="14"/>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="8"/>
@@ -1084,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="10"/>
-      <c r="G48" s="14"/>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="8"/>
@@ -1095,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="10"/>
-      <c r="G49" s="14"/>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="8"/>
@@ -1106,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="10"/>
-      <c r="G50" s="14"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="8"/>
@@ -1117,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="10"/>
-      <c r="G51" s="14"/>
+      <c r="G51" s="11"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="8"/>
@@ -1128,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="10"/>
-      <c r="G52" s="14"/>
+      <c r="G52" s="11"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="8"/>
@@ -1139,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="10"/>
-      <c r="G53" s="14"/>
+      <c r="G53" s="11"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" s="8"/>
@@ -1150,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="10"/>
-      <c r="G54" s="14"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B55" s="8"/>
@@ -1161,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="10"/>
-      <c r="G55" s="14"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" s="8"/>
@@ -1172,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="10"/>
-      <c r="G56" s="14"/>
+      <c r="G56" s="11"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" s="8"/>
@@ -1183,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="10"/>
-      <c r="G57" s="14"/>
+      <c r="G57" s="11"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" s="8"/>
@@ -1194,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="10"/>
-      <c r="G58" s="14"/>
+      <c r="G58" s="11"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" s="8"/>
@@ -1205,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="10"/>
-      <c r="G59" s="14"/>
+      <c r="G59" s="11"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B60" s="8"/>
@@ -1216,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="10"/>
-      <c r="G60" s="14"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B61" s="8"/>
@@ -1227,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="10"/>
-      <c r="G61" s="14"/>
+      <c r="G61" s="11"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B62" s="8"/>
@@ -1238,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="10"/>
-      <c r="G62" s="14"/>
+      <c r="G62" s="11"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" s="8"/>
@@ -1249,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="10"/>
-      <c r="G63" s="14"/>
+      <c r="G63" s="11"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" s="8"/>
@@ -1260,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="10"/>
-      <c r="G64" s="14"/>
+      <c r="G64" s="11"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="8"/>
@@ -1271,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="10"/>
-      <c r="G65" s="14"/>
+      <c r="G65" s="11"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="8"/>
@@ -1282,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="10"/>
-      <c r="G66" s="14"/>
+      <c r="G66" s="11"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="8"/>
@@ -1293,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="10"/>
-      <c r="G67" s="14"/>
+      <c r="G67" s="11"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="8"/>
@@ -1304,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="10"/>
-      <c r="G68" s="14"/>
+      <c r="G68" s="11"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="8"/>
@@ -1315,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="10"/>
-      <c r="G69" s="14"/>
+      <c r="G69" s="11"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="8"/>
@@ -1326,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="10"/>
-      <c r="G70" s="14"/>
+      <c r="G70" s="11"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="8"/>
@@ -1337,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="10"/>
-      <c r="G71" s="14"/>
+      <c r="G71" s="11"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="8"/>
@@ -1348,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="10"/>
-      <c r="G72" s="14"/>
+      <c r="G72" s="11"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="8"/>
@@ -1359,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="10"/>
-      <c r="G73" s="14"/>
+      <c r="G73" s="11"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="8"/>
@@ -1370,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="10"/>
-      <c r="G74" s="14"/>
+      <c r="G74" s="11"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="8"/>
@@ -1381,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="10"/>
-      <c r="G75" s="14"/>
+      <c r="G75" s="11"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B76" s="8"/>
@@ -1392,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="10"/>
-      <c r="G76" s="14"/>
+      <c r="G76" s="11"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="8"/>
@@ -1403,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="10"/>
-      <c r="G77" s="14"/>
+      <c r="G77" s="11"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78" s="8"/>
@@ -1414,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="10"/>
-      <c r="G78" s="14"/>
+      <c r="G78" s="11"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B79" s="8"/>
@@ -1425,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="10"/>
-      <c r="G79" s="14"/>
+      <c r="G79" s="11"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B80" s="8"/>
@@ -1436,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="10"/>
-      <c r="G80" s="14"/>
+      <c r="G80" s="11"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B81" s="8"/>
@@ -1447,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="10"/>
-      <c r="G81" s="14"/>
+      <c r="G81" s="11"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B82" s="8"/>
@@ -1458,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="10"/>
-      <c r="G82" s="14"/>
+      <c r="G82" s="11"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B83" s="8"/>
@@ -1469,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="10"/>
-      <c r="G83" s="14"/>
+      <c r="G83" s="11"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B84" s="8"/>
@@ -1480,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="10"/>
-      <c r="G84" s="14"/>
+      <c r="G84" s="11"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B85" s="8"/>
@@ -1491,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="10"/>
-      <c r="G85" s="14"/>
+      <c r="G85" s="11"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B86" s="8"/>
@@ -1502,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="10"/>
-      <c r="G86" s="14"/>
+      <c r="G86" s="11"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B87" s="8"/>
@@ -1513,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="10"/>
-      <c r="G87" s="14"/>
+      <c r="G87" s="11"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" s="8"/>
@@ -1524,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="10"/>
-      <c r="G88" s="14"/>
+      <c r="G88" s="11"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B89" s="8"/>
@@ -1535,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="10"/>
-      <c r="G89" s="14"/>
+      <c r="G89" s="11"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B90" s="8"/>
@@ -1546,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="10"/>
-      <c r="G90" s="14"/>
+      <c r="G90" s="11"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B91" s="8"/>
@@ -1557,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="10"/>
-      <c r="G91" s="14"/>
+      <c r="G91" s="11"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B92" s="8"/>
@@ -1568,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="F92" s="10"/>
-      <c r="G92" s="14"/>
+      <c r="G92" s="11"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B93" s="8"/>
@@ -1579,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="10"/>
-      <c r="G93" s="14"/>
+      <c r="G93" s="11"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B94" s="8"/>
@@ -1590,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="10"/>
-      <c r="G94" s="14"/>
+      <c r="G94" s="11"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B95" s="8"/>
@@ -1601,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="F95" s="10"/>
-      <c r="G95" s="14"/>
+      <c r="G95" s="11"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B96" s="8"/>
@@ -1612,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="10"/>
-      <c r="G96" s="14"/>
+      <c r="G96" s="11"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B97" s="8"/>
@@ -1623,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="F97" s="10"/>
-      <c r="G97" s="14"/>
+      <c r="G97" s="11"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B98" s="8"/>
@@ -1634,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="F98" s="10"/>
-      <c r="G98" s="14"/>
+      <c r="G98" s="11"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B99" s="8"/>
@@ -1645,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="10"/>
-      <c r="G99" s="14"/>
+      <c r="G99" s="11"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B100" s="8"/>
@@ -1656,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="F100" s="10"/>
-      <c r="G100" s="14"/>
+      <c r="G100" s="11"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B101" s="8"/>
@@ -1667,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="F101" s="10"/>
-      <c r="G101" s="14"/>
+      <c r="G101" s="11"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B102" s="8"/>
@@ -1678,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="10"/>
-      <c r="G102" s="14"/>
+      <c r="G102" s="11"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B103" s="8"/>
@@ -1689,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="F103" s="10"/>
-      <c r="G103" s="14"/>
+      <c r="G103" s="11"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B104" s="8"/>
@@ -1700,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="F104" s="10"/>
-      <c r="G104" s="14"/>
+      <c r="G104" s="11"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B105" s="8"/>
@@ -1711,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="F105" s="10"/>
-      <c r="G105" s="14"/>
+      <c r="G105" s="11"/>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B106" s="8"/>
@@ -1722,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="10"/>
-      <c r="G106" s="14"/>
+      <c r="G106" s="11"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B107" s="8"/>
@@ -1733,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="F107" s="10"/>
-      <c r="G107" s="14"/>
+      <c r="G107" s="11"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B108" s="8"/>
@@ -1744,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="10"/>
-      <c r="G108" s="14"/>
+      <c r="G108" s="11"/>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B109" s="8"/>
@@ -1755,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="F109" s="10"/>
-      <c r="G109" s="14"/>
+      <c r="G109" s="11"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B110" s="8"/>
@@ -1766,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="F110" s="10"/>
-      <c r="G110" s="14"/>
+      <c r="G110" s="11"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B111" s="8"/>
@@ -1777,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="F111" s="10"/>
-      <c r="G111" s="14"/>
+      <c r="G111" s="11"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B112" s="8"/>
@@ -1788,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="F112" s="10"/>
-      <c r="G112" s="14"/>
+      <c r="G112" s="11"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B113" s="8"/>
@@ -1799,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="F113" s="10"/>
-      <c r="G113" s="14"/>
+      <c r="G113" s="11"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B114" s="8"/>
@@ -1810,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="F114" s="10"/>
-      <c r="G114" s="14"/>
+      <c r="G114" s="11"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B115" s="8"/>
@@ -1821,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="F115" s="10"/>
-      <c r="G115" s="14"/>
+      <c r="G115" s="11"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B116" s="8"/>
@@ -1832,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="F116" s="10"/>
-      <c r="G116" s="14"/>
+      <c r="G116" s="11"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B117" s="8"/>
@@ -1843,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="F117" s="10"/>
-      <c r="G117" s="14"/>
+      <c r="G117" s="11"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B118" s="8"/>
@@ -1854,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="F118" s="10"/>
-      <c r="G118" s="14"/>
+      <c r="G118" s="11"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B119" s="8"/>
@@ -1865,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="F119" s="10"/>
-      <c r="G119" s="14"/>
+      <c r="G119" s="11"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B120" s="8"/>
@@ -1876,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="F120" s="10"/>
-      <c r="G120" s="14"/>
+      <c r="G120" s="11"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B121" s="8"/>
@@ -1887,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="F121" s="10"/>
-      <c r="G121" s="14"/>
+      <c r="G121" s="11"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B122" s="8"/>
@@ -1898,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="F122" s="10"/>
-      <c r="G122" s="14"/>
+      <c r="G122" s="11"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B123" s="8"/>
@@ -1909,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="F123" s="10"/>
-      <c r="G123" s="14"/>
+      <c r="G123" s="11"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B124" s="8"/>
@@ -1920,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="F124" s="10"/>
-      <c r="G124" s="14"/>
+      <c r="G124" s="11"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B125" s="8"/>
@@ -1931,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F125" s="10"/>
-      <c r="G125" s="14"/>
+      <c r="G125" s="11"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B126" s="8"/>
@@ -1942,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="F126" s="10"/>
-      <c r="G126" s="14"/>
+      <c r="G126" s="11"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B127" s="8"/>
@@ -1953,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="F127" s="10"/>
-      <c r="G127" s="14"/>
+      <c r="G127" s="11"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B128" s="8"/>
@@ -1964,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F128" s="10"/>
-      <c r="G128" s="14"/>
+      <c r="G128" s="11"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B129" s="8"/>
@@ -1975,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="F129" s="10"/>
-      <c r="G129" s="14"/>
+      <c r="G129" s="11"/>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B130" s="8"/>
@@ -1986,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="F130" s="10"/>
-      <c r="G130" s="14"/>
+      <c r="G130" s="11"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B131" s="8"/>
@@ -1997,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="F131" s="10"/>
-      <c r="G131" s="14"/>
+      <c r="G131" s="11"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B132" s="8"/>
@@ -2008,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="F132" s="10"/>
-      <c r="G132" s="14"/>
+      <c r="G132" s="11"/>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B133" s="8"/>
@@ -2019,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="F133" s="10"/>
-      <c r="G133" s="14"/>
+      <c r="G133" s="11"/>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B134" s="8"/>
@@ -2030,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="F134" s="10"/>
-      <c r="G134" s="14"/>
+      <c r="G134" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
